--- a/UAS_SPK_G.211.20.0026.xlsx
+++ b/UAS_SPK_G.211.20.0026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AE30CD6-4D2D-4E69-8AB1-DC6A68A52B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9B1CB9-0485-4269-A0DB-7128E8310AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B67AC885-E734-493D-8507-DBC25E9045B5}"/>
   </bookViews>
@@ -441,51 +441,126 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -493,108 +568,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8DBB9D-3D2F-4B82-8DF4-27301E14942D}">
   <dimension ref="A2:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="83" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,1500 +963,1395 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="35"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="1" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="G6" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>1</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="G8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
         <v>5</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="2">
         <v>2</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="11">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
         <v>3</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="11">
-        <v>1</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="15" t="s">
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="16" t="s">
+      <c r="M21" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="A22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>2</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="10">
         <v>2.5</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>3</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="10">
         <v>0.5</v>
       </c>
-      <c r="I22" s="23">
-        <v>1</v>
-      </c>
-      <c r="J22" s="20">
+      <c r="I22" s="12">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10">
         <v>1.5</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="12">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10">
         <v>1.5</v>
       </c>
-      <c r="L22" s="23">
+      <c r="M22" s="12">
         <v>2</v>
       </c>
-      <c r="M22" s="20">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="10">
         <v>0.4</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="10">
         <v>0.5</v>
       </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="20">
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10">
         <v>1.5</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="12">
         <v>2</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="12">
         <v>3</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="10">
         <v>3.5</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C24" s="23">
-        <v>1</v>
-      </c>
-      <c r="D24" s="23">
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12">
         <v>2</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="10">
         <v>0.5</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G24" s="23">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="20">
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="10">
         <v>1.5</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="C25" s="20">
+      <c r="B25" s="10">
         <v>0.5</v>
       </c>
-      <c r="D25" s="22">
+      <c r="C25" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E25" s="19">
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
         <v>0.25</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="11">
         <v>0.2857142857142857</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="10">
         <v>0.5</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J25" s="23">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="3">
+      <c r="J25" s="12">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="E27" s="14" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="E27" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="24" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
+      <c r="A29" s="13">
         <f>SUM(B22,E22,H22,K22)</f>
-        <v>5</v>
-      </c>
-      <c r="B29" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="B29" s="14">
         <f>SUM(C22,F22,I22,L22)</f>
-        <v>6.5</v>
-      </c>
-      <c r="C29" s="25">
+        <v>6</v>
+      </c>
+      <c r="C29" s="13">
         <f>SUM(D22,G22,J22,M22)</f>
-        <v>8</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="28">
+        <v>7.5</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="16">
         <f>A29*1/C$33</f>
-        <v>0.20408163265306123</v>
-      </c>
-      <c r="G29" s="28">
+        <v>0.18493150684931509</v>
+      </c>
+      <c r="G29" s="16">
         <f>B29*1/B$33</f>
-        <v>0.33300805074408391</v>
-      </c>
-      <c r="H29" s="22">
+        <v>0.31273268801191362</v>
+      </c>
+      <c r="H29" s="11">
         <f>C29*1/A$33</f>
-        <v>0.51118210862619817</v>
+        <v>0.49180327868852464</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26">
-        <f t="shared" ref="A30:A32" si="0">SUM(B23,E23,H23,K23)</f>
+      <c r="A30" s="14">
+        <f t="shared" ref="A30:A31" si="0">SUM(B23,E23,H23,K23)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="14">
         <f t="shared" ref="B30:B32" si="1">SUM(C23,F23,I23,L23)</f>
         <v>6.4</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="14">
         <f t="shared" ref="C30:C32" si="2">SUM(D23,G23,J23,M23)</f>
         <v>7.5</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="16">
         <f>A30*1/C$33</f>
-        <v>0.21768707482993196</v>
-      </c>
-      <c r="G30" s="28">
+        <v>0.21917808219178081</v>
+      </c>
+      <c r="G30" s="16">
         <f>B30*1/B$33</f>
-        <v>0.32788484996340572</v>
-      </c>
-      <c r="H30" s="22">
+        <v>0.33358153387937456</v>
+      </c>
+      <c r="H30" s="11">
         <f>C30*1/A$33</f>
-        <v>0.47923322683706077</v>
+        <v>0.49180327868852464</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="26">
+      <c r="A31" s="14">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="14">
         <f t="shared" si="1"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="13">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="16">
         <f>A31*1/C$33</f>
-        <v>0.12925170068027211</v>
-      </c>
-      <c r="G31" s="28">
+        <v>0.13013698630136986</v>
+      </c>
+      <c r="G31" s="16">
         <f>B31*1/B$33</f>
-        <v>0.21346669919492556</v>
-      </c>
-      <c r="H31" s="22">
+        <v>0.21717547778605109</v>
+      </c>
+      <c r="H31" s="11">
         <f>C31*1/A$33</f>
-        <v>0.3833865814696486</v>
+        <v>0.39344262295081972</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
+      <c r="A32" s="14">
         <f>SUM(B25,E25,H25,K25)</f>
-        <v>2.15</v>
-      </c>
-      <c r="B32" s="26">
+        <v>2.25</v>
+      </c>
+      <c r="B32" s="14">
         <f t="shared" si="1"/>
-        <v>2.4523809523809526</v>
-      </c>
-      <c r="C32" s="25">
+        <v>2.6190476190476191</v>
+      </c>
+      <c r="C32" s="13">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E32" s="43" t="s">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="E32" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="16">
         <f>A32*1/C$33</f>
-        <v>8.7755102040816324E-2</v>
-      </c>
-      <c r="G32" s="28">
+        <v>9.2465753424657543E-2</v>
+      </c>
+      <c r="G32" s="16">
         <f>B32*1/B$33</f>
-        <v>0.12564040009758479</v>
-      </c>
-      <c r="H32" s="22">
+        <v>0.1365103003226607</v>
+      </c>
+      <c r="H32" s="11">
         <f>C32*1/A$33</f>
-        <v>0.1916932907348243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="27">
+        <v>0.21857923497267759</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
         <f>SUM(A29:A32)</f>
-        <v>15.649999999999999</v>
-      </c>
-      <c r="B33" s="27">
+        <v>15.249999999999998</v>
+      </c>
+      <c r="B33" s="15">
         <f>SUM(B29:B32)</f>
-        <v>19.519047619047619</v>
-      </c>
-      <c r="C33" s="27">
+        <v>19.185714285714287</v>
+      </c>
+      <c r="C33" s="15">
         <f>SUM(C29:C32)</f>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F34" s="29"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
+        <v>24.333333333333332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="32"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="11">
         <f>(F29-H30)/(G30-H30)-(G29-F29)</f>
-        <v>1.689075200873777</v>
-      </c>
-      <c r="E36" s="10" t="s">
+        <v>1.8117032289888875</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="11">
         <f>(F29-H31)/(G31-H31)-(G29-F29)</f>
-        <v>0.92630588560543792</v>
-      </c>
-      <c r="G36" s="10" t="s">
+        <v>1.0551255401307851</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="11">
         <f>(F30-H31)/(G31-H31)-(G30-F30)</f>
-        <v>0.86496478042795855</v>
-      </c>
-      <c r="G37" s="10" t="s">
+        <v>0.87423535900025318</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>0</v>
       </c>
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10" t="s">
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="11">
         <f>(F31-H32)/(G32-H32)-(G31-F31)</f>
-        <v>0.86111213936156039</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+        <v>0.99061956571406096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <f>MIN(B36:B38)</f>
         <v>1</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="12">
         <f>MIN(D36:D38)</f>
         <v>1</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="11">
         <f>MIN(F36:F38)</f>
-        <v>0.86496478042795855</v>
-      </c>
-      <c r="G39" s="16" t="s">
+        <v>0.87423535900025318</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <f>MIN(H36:H38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="41" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="42" t="s">
+      <c r="B42" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <f>B39</f>
         <v>1</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="16">
         <f>D39</f>
         <v>1</v>
       </c>
-      <c r="D43" s="28">
+      <c r="D43" s="16">
         <f>F39</f>
-        <v>0.86496478042795855</v>
-      </c>
-      <c r="E43" s="2">
+        <v>0.87423535900025318</v>
+      </c>
+      <c r="E43" s="1">
         <f>H39</f>
         <v>0</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="16">
         <f>SUM(B43:E43)</f>
-        <v>2.8649647804279583</v>
-      </c>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+        <v>2.8742353590002532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="16">
         <f>B43/$F43</f>
-        <v>0.34904443043471672</v>
-      </c>
-      <c r="C44" s="28">
+        <v>0.34791862011878893</v>
+      </c>
+      <c r="C44" s="16">
         <f>C43/$F43</f>
-        <v>0.34904443043471672</v>
-      </c>
-      <c r="D44" s="28">
+        <v>0.34791862011878893</v>
+      </c>
+      <c r="D44" s="16">
         <f>D43/$F43</f>
-        <v>0.30191113913056661</v>
-      </c>
-      <c r="E44" s="2">
+        <v>0.30416275976242213</v>
+      </c>
+      <c r="E44" s="1">
         <f>E43/$F43</f>
         <v>0</v>
       </c>
-      <c r="F44" s="2">
-        <v>1</v>
-      </c>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="46" t="s">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="2">
         <v>3</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="2">
         <v>3</v>
       </c>
-      <c r="D48" s="44">
+      <c r="D48" s="27">
         <v>2</v>
       </c>
-      <c r="E48" s="44">
+      <c r="E48" s="27">
         <v>2</v>
       </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="2">
         <v>5</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="2">
         <v>3</v>
       </c>
-      <c r="D49" s="47">
+      <c r="D49" s="12">
         <v>2</v>
       </c>
-      <c r="E49" s="47">
+      <c r="E49" s="12">
         <v>2</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="11">
-        <v>1</v>
-      </c>
-      <c r="C50" s="11">
-        <v>1</v>
-      </c>
-      <c r="D50" s="47">
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12">
         <v>3</v>
       </c>
-      <c r="E50" s="47">
-        <v>1</v>
-      </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
+      <c r="E50" s="12">
+        <v>1</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="2">
         <v>2</v>
       </c>
-      <c r="C51" s="11">
-        <v>1</v>
-      </c>
-      <c r="D51" s="47">
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12">
         <v>3</v>
       </c>
-      <c r="E51" s="47">
-        <v>1</v>
-      </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
+      <c r="E51" s="12">
+        <v>1</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="10" t="s">
+      <c r="B54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="42" t="s">
+      <c r="F54" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="50">
-        <f>B48*B$44</f>
-        <v>1.0471332913041502</v>
-      </c>
-      <c r="C55" s="50">
-        <f>C48*C$44</f>
-        <v>1.0471332913041502</v>
-      </c>
-      <c r="D55" s="50">
-        <f>D48*D$44</f>
-        <v>0.60382227826113322</v>
-      </c>
-      <c r="E55" s="50">
-        <f>E48*E$44</f>
+      <c r="B55" s="30">
+        <f t="shared" ref="B55:E58" si="3">B48*B$44</f>
+        <v>1.0437558603563668</v>
+      </c>
+      <c r="C55" s="30">
+        <f t="shared" si="3"/>
+        <v>1.0437558603563668</v>
+      </c>
+      <c r="D55" s="30">
+        <f t="shared" si="3"/>
+        <v>0.60832551952484426</v>
+      </c>
+      <c r="E55" s="30">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="11">
         <f>SUM(B55:E55)</f>
-        <v>2.6980888608694338</v>
-      </c>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
+        <v>2.6958372402375779</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="50">
-        <f>B49*B$44</f>
-        <v>1.7452221521735836</v>
-      </c>
-      <c r="C56" s="49">
-        <f>C49*C$44</f>
-        <v>1.0471332913041502</v>
-      </c>
-      <c r="D56" s="49">
-        <f>D49*D$44</f>
-        <v>0.60382227826113322</v>
-      </c>
-      <c r="E56" s="50">
-        <f>E49*E$44</f>
+      <c r="B56" s="30">
+        <f t="shared" si="3"/>
+        <v>1.7395931005939447</v>
+      </c>
+      <c r="C56" s="30">
+        <f t="shared" si="3"/>
+        <v>1.0437558603563668</v>
+      </c>
+      <c r="D56" s="30">
+        <f t="shared" si="3"/>
+        <v>0.60832551952484426</v>
+      </c>
+      <c r="E56" s="30">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F56" s="45">
-        <f t="shared" ref="F56:F58" si="3">SUM(B56:E56)</f>
-        <v>3.3961777217388671</v>
-      </c>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
+      <c r="F56" s="11">
+        <f t="shared" ref="F56:F58" si="4">SUM(B56:E56)</f>
+        <v>3.3916744804751557</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="50">
-        <f>B50*B$44</f>
-        <v>0.34904443043471672</v>
-      </c>
-      <c r="C57" s="49">
-        <f>C50*C$44</f>
-        <v>0.34904443043471672</v>
-      </c>
-      <c r="D57" s="49">
-        <f>D50*D$44</f>
-        <v>0.90573341739169977</v>
-      </c>
-      <c r="E57" s="50">
-        <f>E50*E$44</f>
+      <c r="B57" s="30">
+        <f t="shared" si="3"/>
+        <v>0.34791862011878893</v>
+      </c>
+      <c r="C57" s="30">
+        <f t="shared" si="3"/>
+        <v>0.34791862011878893</v>
+      </c>
+      <c r="D57" s="30">
+        <f t="shared" si="3"/>
+        <v>0.91248827928726639</v>
+      </c>
+      <c r="E57" s="30">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="11">
+        <f t="shared" si="4"/>
+        <v>1.6083255195248443</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="30">
         <f t="shared" si="3"/>
-        <v>1.6038222782611333</v>
-      </c>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="50">
-        <f>B51*B$44</f>
-        <v>0.69808886086943345</v>
-      </c>
-      <c r="C58" s="49">
-        <f>C51*C$44</f>
-        <v>0.34904443043471672</v>
-      </c>
-      <c r="D58" s="49">
-        <f>D51*D$44</f>
-        <v>0.90573341739169977</v>
-      </c>
-      <c r="E58" s="50">
-        <f>E51*E$44</f>
+        <v>0.69583724023757787</v>
+      </c>
+      <c r="C58" s="30">
+        <f t="shared" si="3"/>
+        <v>0.34791862011878893</v>
+      </c>
+      <c r="D58" s="30">
+        <f t="shared" si="3"/>
+        <v>0.91248827928726639</v>
+      </c>
+      <c r="E58" s="30">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F58" s="45">
-        <f t="shared" si="3"/>
-        <v>1.95286670869585</v>
-      </c>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
+      <c r="F58" s="11">
+        <f t="shared" si="4"/>
+        <v>1.9562441396436332</v>
+      </c>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="38"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="20"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="53">
+      <c r="C62" s="33">
         <f>F55</f>
-        <v>2.6980888608694338</v>
-      </c>
-      <c r="D62" s="47">
+        <v>2.6958372402375779</v>
+      </c>
+      <c r="D62" s="12">
         <f>RANK(F55,  $F$55:$F$58, 1)</f>
         <v>3</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="21"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="53">
-        <f t="shared" ref="C63:C65" si="4">F56</f>
-        <v>3.3961777217388671</v>
-      </c>
-      <c r="D63" s="47">
+      <c r="C63" s="33">
+        <f t="shared" ref="C63:C65" si="5">F56</f>
+        <v>3.3916744804751557</v>
+      </c>
+      <c r="D63" s="12">
         <f>RANK(F56,  $F$55:$F$58, 1)</f>
         <v>4</v>
       </c>
-      <c r="E63" s="35"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="21"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="53">
-        <f t="shared" si="4"/>
-        <v>1.6038222782611333</v>
-      </c>
-      <c r="D64" s="55">
+      <c r="C64" s="33">
+        <f t="shared" si="5"/>
+        <v>1.6083255195248443</v>
+      </c>
+      <c r="D64" s="34">
         <f>RANK(F57,  $F$55:$F$58, 1)</f>
         <v>1</v>
       </c>
-      <c r="E64" s="33"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="53">
-        <f t="shared" si="4"/>
-        <v>1.95286670869585</v>
-      </c>
-      <c r="D65" s="47">
+      <c r="C65" s="33">
+        <f t="shared" si="5"/>
+        <v>1.9562441396436332</v>
+      </c>
+      <c r="D65" s="12">
         <f>RANK(F58,  $F$55:$F$58, 1)</f>
         <v>2</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G6:K6"/>
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A19:M19"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A19:M19"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G6:K6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UAS_SPK_G.211.20.0026.xlsx
+++ b/UAS_SPK_G.211.20.0026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9B1CB9-0485-4269-A0DB-7128E8310AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA94B59-B31F-4F50-9671-5AF746BE8447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B67AC885-E734-493D-8507-DBC25E9045B5}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -475,14 +475,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -536,17 +530,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,8 +562,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8DBB9D-3D2F-4B82-8DF4-27301E14942D}">
   <dimension ref="A2:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="83" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="83" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,53 +963,53 @@
       <c r="A2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="35"/>
+      <c r="C2" s="44"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="44"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="G6" s="46" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="G6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1037,17 +1034,17 @@
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="2">
@@ -1067,17 +1064,17 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="36"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="2">
@@ -1097,17 +1094,17 @@
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="24" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="2">
@@ -1127,17 +1124,17 @@
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="24" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="2">
@@ -1157,10 +1154,10 @@
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1172,10 +1169,10 @@
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1193,10 +1190,10 @@
       <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1206,7 +1203,7 @@
       <c r="G14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="29" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1214,10 +1211,10 @@
       <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1227,7 +1224,7 @@
       <c r="G15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="29" t="s">
         <v>40</v>
       </c>
       <c r="N15" s="4"/>
@@ -1238,10 +1235,10 @@
       <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1251,7 +1248,7 @@
       <c r="G16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="29" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1259,7 +1256,7 @@
       <c r="G17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="30" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="4"/>
@@ -1267,47 +1264,47 @@
       <c r="K17" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42" t="s">
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43" t="s">
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="8" t="s">
         <v>43</v>
       </c>
@@ -1510,17 +1507,17 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="E27" s="37" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="E27" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -1548,7 +1545,7 @@
         <f>SUM(B22,E22,H22,K22)</f>
         <v>4.5</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <f>SUM(C22,F22,I22,L22)</f>
         <v>6</v>
       </c>
@@ -1556,14 +1553,14 @@
         <f>SUM(D22,G22,J22,M22)</f>
         <v>7.5</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="16">
+      <c r="E29" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14">
         <f>A29*1/C$33</f>
         <v>0.18493150684931509</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="14">
         <f>B29*1/B$33</f>
         <v>0.31273268801191362</v>
       </c>
@@ -1573,26 +1570,26 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <f t="shared" ref="A30:A31" si="0">SUM(B23,E23,H23,K23)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <f t="shared" ref="B30:B32" si="1">SUM(C23,F23,I23,L23)</f>
         <v>6.4</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <f t="shared" ref="C30:C32" si="2">SUM(D23,G23,J23,M23)</f>
         <v>7.5</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="14">
         <f>A30*1/C$33</f>
         <v>0.21917808219178081</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="14">
         <f>B30*1/B$33</f>
         <v>0.33358153387937456</v>
       </c>
@@ -1602,11 +1599,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <f t="shared" si="1"/>
         <v>4.1666666666666661</v>
       </c>
@@ -1614,14 +1611,14 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="14">
         <f>A31*1/C$33</f>
         <v>0.13013698630136986</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="14">
         <f>B31*1/B$33</f>
         <v>0.21717547778605109</v>
       </c>
@@ -1631,11 +1628,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
+      <c r="A32" s="13">
         <f>SUM(B25,E25,H25,K25)</f>
         <v>2.25</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <f t="shared" si="1"/>
         <v>2.6190476190476191</v>
       </c>
@@ -1643,14 +1640,14 @@
         <f t="shared" si="2"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="14">
         <f>A32*1/C$33</f>
         <v>9.2465753424657543E-2</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="14">
         <f>B32*1/B$33</f>
         <v>0.1365103003226607</v>
       </c>
@@ -1660,33 +1657,33 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="15">
+      <c r="A33" s="45">
         <f>SUM(A29:A32)</f>
         <v>15.249999999999998</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="45">
         <f>SUM(B29:B32)</f>
         <v>19.185714285714287</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="45">
         <f>SUM(C29:C32)</f>
         <v>24.333333333333332</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F34" s="17"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="41"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
@@ -1802,32 +1799,32 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="23" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1839,11 +1836,11 @@
         <f>B39</f>
         <v>1</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="14">
         <f>D39</f>
         <v>1</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="14">
         <f>F39</f>
         <v>0.87423535900025318</v>
       </c>
@@ -1851,7 +1848,7 @@
         <f>H39</f>
         <v>0</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="14">
         <f>SUM(B43:E43)</f>
         <v>2.8742353590002532</v>
       </c>
@@ -1860,15 +1857,15 @@
       <c r="A44" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="14">
         <f>B43/$F43</f>
         <v>0.34791862011878893</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="14">
         <f>C43/$F43</f>
         <v>0.34791862011878893</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="14">
         <f>D43/$F43</f>
         <v>0.30416275976242213</v>
       </c>
@@ -1881,13 +1878,13 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
@@ -1907,7 +1904,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B48" s="2">
@@ -1916,19 +1913,19 @@
       <c r="C48" s="2">
         <v>3</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="25">
         <v>2</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="25">
         <v>2</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="2">
@@ -1943,13 +1940,13 @@
       <c r="E49" s="12">
         <v>2</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B50" s="2">
@@ -1964,13 +1961,13 @@
       <c r="E50" s="12">
         <v>1</v>
       </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="26" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="2">
@@ -1985,34 +1982,34 @@
       <c r="E51" s="12">
         <v>1</v>
       </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
@@ -2030,33 +2027,33 @@
       <c r="E54" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="28">
         <f t="shared" ref="B55:E58" si="3">B48*B$44</f>
         <v>1.0437558603563668</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="28">
         <f t="shared" si="3"/>
         <v>1.0437558603563668</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="28">
         <f t="shared" si="3"/>
         <v>0.60832551952484426</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2064,9 +2061,9 @@
         <f>SUM(B55:E55)</f>
         <v>2.6958372402375779</v>
       </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -2075,19 +2072,19 @@
       <c r="A56" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="30">
+      <c r="B56" s="28">
         <f t="shared" si="3"/>
         <v>1.7395931005939447</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="28">
         <f t="shared" si="3"/>
         <v>1.0437558603563668</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="28">
         <f t="shared" si="3"/>
         <v>0.60832551952484426</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2095,9 +2092,9 @@
         <f t="shared" ref="F56:F58" si="4">SUM(B56:E56)</f>
         <v>3.3916744804751557</v>
       </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
@@ -2106,19 +2103,19 @@
       <c r="A57" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="28">
         <f t="shared" si="3"/>
         <v>0.34791862011878893</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C57" s="28">
         <f t="shared" si="3"/>
         <v>0.34791862011878893</v>
       </c>
-      <c r="D57" s="30">
+      <c r="D57" s="28">
         <f t="shared" si="3"/>
         <v>0.91248827928726639</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2126,9 +2123,9 @@
         <f t="shared" si="4"/>
         <v>1.6083255195248443</v>
       </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
@@ -2137,19 +2134,19 @@
       <c r="A58" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="30">
+      <c r="B58" s="28">
         <f t="shared" si="3"/>
         <v>0.69583724023757787</v>
       </c>
-      <c r="C58" s="30">
+      <c r="C58" s="28">
         <f t="shared" si="3"/>
         <v>0.34791862011878893</v>
       </c>
-      <c r="D58" s="30">
+      <c r="D58" s="28">
         <f t="shared" si="3"/>
         <v>0.91248827928726639</v>
       </c>
-      <c r="E58" s="30">
+      <c r="E58" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2162,39 +2159,39 @@
       <c r="P58" s="4"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
@@ -2212,87 +2209,87 @@
       <c r="D61" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="21"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="20"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="18"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="31">
         <f>F55</f>
         <v>2.6958372402375779</v>
       </c>
-      <c r="D62" s="12">
-        <f>RANK(F55,  $F$55:$F$58, 1)</f>
-        <v>3</v>
+      <c r="D62" s="32">
+        <f>RANK(F55, $F$55:$F$58, 0)</f>
+        <v>2</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="21"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="19"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="31">
         <f t="shared" ref="C63:C65" si="5">F56</f>
         <v>3.3916744804751557</v>
       </c>
-      <c r="D63" s="12">
-        <f>RANK(F56,  $F$55:$F$58, 1)</f>
-        <v>4</v>
-      </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="21"/>
+      <c r="D63" s="32">
+        <f t="shared" ref="D63:D65" si="6">RANK(F56, $F$55:$F$58, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E63" s="18"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="19"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="21"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="19"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="31">
         <f t="shared" si="5"/>
         <v>1.6083255195248443</v>
       </c>
-      <c r="D64" s="34">
-        <f>RANK(F57,  $F$55:$F$58, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="21"/>
+      <c r="D64" s="32">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="19"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
@@ -2301,16 +2298,16 @@
       <c r="A65" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C65" s="33">
+      <c r="C65" s="31">
         <f t="shared" si="5"/>
         <v>1.9562441396436332</v>
       </c>
-      <c r="D65" s="12">
-        <f>RANK(F58,  $F$55:$F$58, 1)</f>
-        <v>2</v>
+      <c r="D65" s="32">
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -2324,18 +2321,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
@@ -2352,6 +2337,18 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
